--- a/ShoppingSiteRoo/integration図.xlsx
+++ b/ShoppingSiteRoo/integration図.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Channels</t>
     <phoneticPr fontId="1"/>
@@ -85,7 +85,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -93,6 +93,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2904,25 +2907,25 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
-    <dgm:cxn modelId="{6E765DDB-AE7E-43A9-A003-BE1CE5B3EC92}" type="presOf" srcId="{AFD5F7C5-D07B-4D6B-B7CA-FA212FDA1D4E}" destId="{19E2CF69-21D3-4DF0-B814-65B27C260395}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
+    <dgm:cxn modelId="{6F945128-A9E6-4ADA-B31F-813F058E070B}" srcId="{AFD5F7C5-D07B-4D6B-B7CA-FA212FDA1D4E}" destId="{634A2394-ECBD-4FF3-995F-18A890B99765}" srcOrd="2" destOrd="0" parTransId="{FA29393B-94E1-4CFD-88ED-8298BBCB0BC6}" sibTransId="{F3722ADD-5CD6-42BC-BE2E-FFF6917BEA7D}"/>
+    <dgm:cxn modelId="{E791236F-95E1-413A-B2A8-79DEDAE575EB}" type="presOf" srcId="{C4600437-6FC2-41E5-B54C-499799852D4A}" destId="{C5EA4C85-77BF-43AA-B606-81D2C52B4CF9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
+    <dgm:cxn modelId="{DFD74669-6198-499C-AC00-CB8C3E7C49AC}" srcId="{AFD5F7C5-D07B-4D6B-B7CA-FA212FDA1D4E}" destId="{258DAB9C-933A-4F9E-BE59-1CB0349CF6B7}" srcOrd="1" destOrd="0" parTransId="{C7A646AF-324E-4ED8-A257-FD5CAEC065ED}" sibTransId="{4FAF3197-43F1-4B34-905C-801FF6DF1100}"/>
+    <dgm:cxn modelId="{145D6573-D779-448F-8166-3FF88460A932}" srcId="{AFD5F7C5-D07B-4D6B-B7CA-FA212FDA1D4E}" destId="{5ECC4B3F-65F6-4FC7-BBEA-B3B18A4CE2C4}" srcOrd="0" destOrd="0" parTransId="{C9AAEB6B-CBBE-43C3-BE26-BE868EF9DB16}" sibTransId="{0D98BDDB-BBFE-4D92-BB14-80BBA797AE7B}"/>
+    <dgm:cxn modelId="{5AD66FA1-9749-4EB0-8A89-649D491482A3}" type="presOf" srcId="{0D98BDDB-BBFE-4D92-BB14-80BBA797AE7B}" destId="{5C31DB20-2D2C-4567-B156-0E0F4DCCDC78}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
     <dgm:cxn modelId="{7AEC7962-EA7B-43EA-ABBE-AEDA658BBE93}" type="presOf" srcId="{5ECC4B3F-65F6-4FC7-BBEA-B3B18A4CE2C4}" destId="{8B6BF436-D423-4DF0-93D5-1B92F1DF39C2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
-    <dgm:cxn modelId="{E791236F-95E1-413A-B2A8-79DEDAE575EB}" type="presOf" srcId="{C4600437-6FC2-41E5-B54C-499799852D4A}" destId="{C5EA4C85-77BF-43AA-B606-81D2C52B4CF9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
+    <dgm:cxn modelId="{CF9B4FCE-23EF-425A-917F-8B5850661D2A}" type="presOf" srcId="{634A2394-ECBD-4FF3-995F-18A890B99765}" destId="{FB1032BB-3041-4CCC-96F2-8C162B1A1D3B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
+    <dgm:cxn modelId="{CCD2AD30-9739-44A5-9DE7-AA5A390B4E43}" srcId="{AFD5F7C5-D07B-4D6B-B7CA-FA212FDA1D4E}" destId="{A0BBF729-FB72-4357-BA43-7EF3149E016F}" srcOrd="4" destOrd="0" parTransId="{0273EE1B-EA16-4DCD-9E26-5EDE7EF94F18}" sibTransId="{5132DF57-9C52-414A-96F1-1432DED11A97}"/>
+    <dgm:cxn modelId="{6DE51901-2D93-4C63-9346-3F6F725EBDF0}" type="presOf" srcId="{F3722ADD-5CD6-42BC-BE2E-FFF6917BEA7D}" destId="{D3D70F2C-3729-4DCB-B71B-E066BE34DF64}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
+    <dgm:cxn modelId="{ECD76C3D-BC28-4013-A63B-382AC35963E8}" srcId="{AFD5F7C5-D07B-4D6B-B7CA-FA212FDA1D4E}" destId="{99026202-FFE4-4987-BEC9-D63D6859176F}" srcOrd="3" destOrd="0" parTransId="{EF81EA67-36F4-4C37-A16A-1C78F38B3495}" sibTransId="{C4600437-6FC2-41E5-B54C-499799852D4A}"/>
+    <dgm:cxn modelId="{27DAB7C8-A21E-424B-A04B-694D205FD776}" type="presOf" srcId="{99026202-FFE4-4987-BEC9-D63D6859176F}" destId="{63B6C576-64E1-4CFD-A2CA-B6084680939C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
+    <dgm:cxn modelId="{5A0A0AE3-2D44-47C5-BEAA-29E302985996}" type="presOf" srcId="{A0BBF729-FB72-4357-BA43-7EF3149E016F}" destId="{1CB8834B-067C-47B3-81B6-4E66ECBEFBFE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
+    <dgm:cxn modelId="{3E5CD61E-69CE-4334-ADA7-9B162559879B}" type="presOf" srcId="{4FAF3197-43F1-4B34-905C-801FF6DF1100}" destId="{796DB335-E366-4ABA-9A67-330FAB6D3DDF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
     <dgm:cxn modelId="{8195E1F7-EC87-4BCF-A3DA-9684C94400BE}" type="presOf" srcId="{0D98BDDB-BBFE-4D92-BB14-80BBA797AE7B}" destId="{88ECB1AE-6CAA-4B71-9E34-08CBFE237138}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
     <dgm:cxn modelId="{7481540D-700B-4021-86DF-843A288146FA}" type="presOf" srcId="{4FAF3197-43F1-4B34-905C-801FF6DF1100}" destId="{3B3A0EFE-49F3-408F-883F-05B0291FF9E1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
-    <dgm:cxn modelId="{27DAB7C8-A21E-424B-A04B-694D205FD776}" type="presOf" srcId="{99026202-FFE4-4987-BEC9-D63D6859176F}" destId="{63B6C576-64E1-4CFD-A2CA-B6084680939C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
-    <dgm:cxn modelId="{3E5CD61E-69CE-4334-ADA7-9B162559879B}" type="presOf" srcId="{4FAF3197-43F1-4B34-905C-801FF6DF1100}" destId="{796DB335-E366-4ABA-9A67-330FAB6D3DDF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
+    <dgm:cxn modelId="{64CAD437-5976-4043-A5B5-D2AE37E1B28A}" type="presOf" srcId="{C4600437-6FC2-41E5-B54C-499799852D4A}" destId="{2BF28161-F816-4B72-BDB1-99AFCE3F7B86}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
+    <dgm:cxn modelId="{6E765DDB-AE7E-43A9-A003-BE1CE5B3EC92}" type="presOf" srcId="{AFD5F7C5-D07B-4D6B-B7CA-FA212FDA1D4E}" destId="{19E2CF69-21D3-4DF0-B814-65B27C260395}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
     <dgm:cxn modelId="{FDDD1F13-DA13-48A9-A8D6-63F77D8F94BD}" type="presOf" srcId="{258DAB9C-933A-4F9E-BE59-1CB0349CF6B7}" destId="{19B3093B-BDDA-44DC-8AC2-CF6719C260C0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
-    <dgm:cxn modelId="{6DE51901-2D93-4C63-9346-3F6F725EBDF0}" type="presOf" srcId="{F3722ADD-5CD6-42BC-BE2E-FFF6917BEA7D}" destId="{D3D70F2C-3729-4DCB-B71B-E066BE34DF64}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
     <dgm:cxn modelId="{582549B9-C6CD-444B-8707-4C2D5F4D1085}" type="presOf" srcId="{F3722ADD-5CD6-42BC-BE2E-FFF6917BEA7D}" destId="{ED877936-6053-46F8-A9AE-6C6C47F49B34}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
-    <dgm:cxn modelId="{64CAD437-5976-4043-A5B5-D2AE37E1B28A}" type="presOf" srcId="{C4600437-6FC2-41E5-B54C-499799852D4A}" destId="{2BF28161-F816-4B72-BDB1-99AFCE3F7B86}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
-    <dgm:cxn modelId="{145D6573-D779-448F-8166-3FF88460A932}" srcId="{AFD5F7C5-D07B-4D6B-B7CA-FA212FDA1D4E}" destId="{5ECC4B3F-65F6-4FC7-BBEA-B3B18A4CE2C4}" srcOrd="0" destOrd="0" parTransId="{C9AAEB6B-CBBE-43C3-BE26-BE868EF9DB16}" sibTransId="{0D98BDDB-BBFE-4D92-BB14-80BBA797AE7B}"/>
-    <dgm:cxn modelId="{CCD2AD30-9739-44A5-9DE7-AA5A390B4E43}" srcId="{AFD5F7C5-D07B-4D6B-B7CA-FA212FDA1D4E}" destId="{A0BBF729-FB72-4357-BA43-7EF3149E016F}" srcOrd="4" destOrd="0" parTransId="{0273EE1B-EA16-4DCD-9E26-5EDE7EF94F18}" sibTransId="{5132DF57-9C52-414A-96F1-1432DED11A97}"/>
-    <dgm:cxn modelId="{6F945128-A9E6-4ADA-B31F-813F058E070B}" srcId="{AFD5F7C5-D07B-4D6B-B7CA-FA212FDA1D4E}" destId="{634A2394-ECBD-4FF3-995F-18A890B99765}" srcOrd="2" destOrd="0" parTransId="{FA29393B-94E1-4CFD-88ED-8298BBCB0BC6}" sibTransId="{F3722ADD-5CD6-42BC-BE2E-FFF6917BEA7D}"/>
-    <dgm:cxn modelId="{ECD76C3D-BC28-4013-A63B-382AC35963E8}" srcId="{AFD5F7C5-D07B-4D6B-B7CA-FA212FDA1D4E}" destId="{99026202-FFE4-4987-BEC9-D63D6859176F}" srcOrd="3" destOrd="0" parTransId="{EF81EA67-36F4-4C37-A16A-1C78F38B3495}" sibTransId="{C4600437-6FC2-41E5-B54C-499799852D4A}"/>
-    <dgm:cxn modelId="{DFD74669-6198-499C-AC00-CB8C3E7C49AC}" srcId="{AFD5F7C5-D07B-4D6B-B7CA-FA212FDA1D4E}" destId="{258DAB9C-933A-4F9E-BE59-1CB0349CF6B7}" srcOrd="1" destOrd="0" parTransId="{C7A646AF-324E-4ED8-A257-FD5CAEC065ED}" sibTransId="{4FAF3197-43F1-4B34-905C-801FF6DF1100}"/>
-    <dgm:cxn modelId="{5A0A0AE3-2D44-47C5-BEAA-29E302985996}" type="presOf" srcId="{A0BBF729-FB72-4357-BA43-7EF3149E016F}" destId="{1CB8834B-067C-47B3-81B6-4E66ECBEFBFE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
-    <dgm:cxn modelId="{CF9B4FCE-23EF-425A-917F-8B5850661D2A}" type="presOf" srcId="{634A2394-ECBD-4FF3-995F-18A890B99765}" destId="{FB1032BB-3041-4CCC-96F2-8C162B1A1D3B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
-    <dgm:cxn modelId="{5AD66FA1-9749-4EB0-8A89-649D491482A3}" type="presOf" srcId="{0D98BDDB-BBFE-4D92-BB14-80BBA797AE7B}" destId="{5C31DB20-2D2C-4567-B156-0E0F4DCCDC78}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
     <dgm:cxn modelId="{AE3EABA4-7955-4176-8307-BB38C8C1316A}" type="presParOf" srcId="{19E2CF69-21D3-4DF0-B814-65B27C260395}" destId="{8B6BF436-D423-4DF0-93D5-1B92F1DF39C2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
     <dgm:cxn modelId="{92A9E297-F36C-468B-A629-C87767E3519B}" type="presParOf" srcId="{19E2CF69-21D3-4DF0-B814-65B27C260395}" destId="{5C31DB20-2D2C-4567-B156-0E0F4DCCDC78}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
     <dgm:cxn modelId="{E4837BF6-89A2-4A96-B2AC-2125BC557599}" type="presParOf" srcId="{5C31DB20-2D2C-4567-B156-0E0F4DCCDC78}" destId="{88ECB1AE-6CAA-4B71-9E34-08CBFE237138}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/bProcess3"/>
@@ -3626,8 +3629,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1874529" y="655451"/>
-          <a:ext cx="1554603" cy="1994619"/>
+          <a:off x="1745459" y="764739"/>
+          <a:ext cx="1445559" cy="1857412"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3638,16 +3641,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="1994619"/>
+                <a:pt x="0" y="1857412"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="794401" y="1994619"/>
+                <a:pt x="739879" y="1857412"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="794401" y="0"/>
+                <a:pt x="739879" y="0"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1554603" y="0"/>
+                <a:pt x="1445559" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3703,8 +3706,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2588135" y="1643644"/>
-        <a:ext cx="127390" cy="18233"/>
+        <a:off x="2408925" y="1684956"/>
+        <a:ext cx="118627" cy="16978"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8B6BF436-D423-4DF0-93D5-1B92F1DF39C2}">
@@ -3714,8 +3717,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4512" y="2257025"/>
-          <a:ext cx="1871816" cy="786091"/>
+          <a:off x="4202" y="2256143"/>
+          <a:ext cx="1743057" cy="732017"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3780,12 +3783,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="106680" tIns="106680" rIns="106680" bIns="106680" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="99568" tIns="99568" rIns="99568" bIns="99568" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3797,14 +3800,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" kern="1200"/>
             <a:t>jms:message-driven-channel-adapter</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4512" y="2257025"/>
-        <a:ext cx="1871816" cy="786091"/>
+        <a:off x="4202" y="2256143"/>
+        <a:ext cx="1743057" cy="732017"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{796DB335-E366-4ABA-9A67-330FAB6D3DDF}">
@@ -3814,8 +3817,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4351721" y="1046697"/>
-          <a:ext cx="91440" cy="1177927"/>
+          <a:off x="4049227" y="1128948"/>
+          <a:ext cx="91440" cy="1094794"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3829,7 +3832,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1177927"/>
+                <a:pt x="45720" y="1094794"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3885,8 +3888,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4367228" y="1626544"/>
-        <a:ext cx="60426" cy="18233"/>
+        <a:off x="4066812" y="1667856"/>
+        <a:ext cx="56269" cy="16978"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{19B3093B-BDDA-44DC-8AC2-CF6719C260C0}">
@@ -3896,8 +3899,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3461533" y="262405"/>
-          <a:ext cx="1871816" cy="786091"/>
+          <a:off x="3223419" y="398730"/>
+          <a:ext cx="1743057" cy="732017"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3985,8 +3988,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3461533" y="262405"/>
-        <a:ext cx="1871816" cy="786091"/>
+        <a:off x="3223419" y="398730"/>
+        <a:ext cx="1743057" cy="732017"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D3D70F2C-3729-4DCB-B71B-E066BE34DF64}">
@@ -3996,8 +3999,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5331549" y="655491"/>
-          <a:ext cx="1491879" cy="1994579"/>
+          <a:off x="4964676" y="764776"/>
+          <a:ext cx="1387150" cy="1857375"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4008,16 +4011,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="1994579"/>
+                <a:pt x="0" y="1857375"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="763039" y="1994579"/>
+                <a:pt x="710675" y="1857375"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="763039" y="0"/>
+                <a:pt x="710675" y="0"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1491879" y="0"/>
+                <a:pt x="1387150" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4073,8 +4076,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6014758" y="1643664"/>
-        <a:ext cx="125462" cy="18233"/>
+        <a:off x="5599835" y="1684974"/>
+        <a:ext cx="116831" cy="16978"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FB1032BB-3041-4CCC-96F2-8C162B1A1D3B}">
@@ -4084,8 +4087,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3461533" y="2257025"/>
-          <a:ext cx="1871816" cy="786091"/>
+          <a:off x="3223419" y="2256143"/>
+          <a:ext cx="1743057" cy="732017"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4173,8 +4176,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3461533" y="2257025"/>
-        <a:ext cx="1871816" cy="786091"/>
+        <a:off x="3223419" y="2256143"/>
+        <a:ext cx="1743057" cy="732017"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2BF28161-F816-4B72-BDB1-99AFCE3F7B86}">
@@ -4184,8 +4187,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7746017" y="1046737"/>
-          <a:ext cx="91440" cy="1177856"/>
+          <a:off x="7210034" y="1128985"/>
+          <a:ext cx="91440" cy="1094728"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4199,13 +4202,13 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="606028"/>
+                <a:pt x="45720" y="564464"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="48254" y="606028"/>
+                <a:pt x="48079" y="564464"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="48254" y="1177856"/>
+                <a:pt x="48079" y="1094728"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4261,8 +4264,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7761526" y="1626548"/>
-        <a:ext cx="60422" cy="18233"/>
+        <a:off x="7227621" y="1667860"/>
+        <a:ext cx="56266" cy="16978"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{63B6C576-64E1-4CFD-A2CA-B6084680939C}">
@@ -4272,8 +4275,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6855829" y="262445"/>
-          <a:ext cx="1871816" cy="786091"/>
+          <a:off x="6384226" y="398767"/>
+          <a:ext cx="1743057" cy="732017"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4361,8 +4364,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6855829" y="262445"/>
-        <a:ext cx="1871816" cy="786091"/>
+        <a:off x="6384226" y="398767"/>
+        <a:ext cx="1743057" cy="732017"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1CB8834B-067C-47B3-81B6-4E66ECBEFBFE}">
@@ -4372,8 +4375,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6855829" y="2256993"/>
-          <a:ext cx="1876885" cy="811608"/>
+          <a:off x="6384226" y="2256113"/>
+          <a:ext cx="1747776" cy="755779"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4462,8 +4465,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6855829" y="2256993"/>
-        <a:ext cx="1876885" cy="811608"/>
+        <a:off x="6384226" y="2256113"/>
+        <a:ext cx="1747776" cy="755779"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -6959,10 +6962,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6983,16 +6986,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7001,8 +7004,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6600825" y="4257675"/>
-          <a:ext cx="2676525" cy="1114425"/>
+          <a:off x="5895974" y="4162425"/>
+          <a:ext cx="2733676" cy="1247775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7061,16 +7064,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1081088</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1081088</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7081,8 +7084,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7939088" y="3276601"/>
-          <a:ext cx="0" cy="981074"/>
+          <a:off x="7258050" y="3209925"/>
+          <a:ext cx="4762" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7108,6 +7111,179 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9048750" y="1362075"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3324225" cy="638176"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877300" y="2533649"/>
+          <a:ext cx="3324225" cy="638176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="3200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Spring integration </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1790700" cy="571500"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877300" y="723900"/>
+          <a:ext cx="1790700" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="3200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Channels</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="3200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7452,25 +7628,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:L20"/>
+  <dimension ref="A5:BJ20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="31.75" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="4" spans="1:12" ht="28.5">
-      <c r="K4" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="5" spans="1:62" ht="15" customHeight="1">
+      <c r="AT5" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="14.25" thickBot="1">
+    <row r="9" spans="1:62" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -7483,13 +7652,87 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="28.5">
-      <c r="K14" s="2" t="s">
-        <v>1</v>
-      </c>
+    <row r="14" spans="1:62" ht="15" customHeight="1">
+      <c r="K14" s="2"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="14.25" thickBot="1">
+    <row r="15" spans="1:62" ht="15" customHeight="1">
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+    </row>
+    <row r="20" spans="1:62" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -7502,6 +7745,56 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
